--- a/assignments/29Nov/output/Retire.xlsx
+++ b/assignments/29Nov/output/Retire.xlsx
@@ -23,6 +23,9 @@
   </x:si>
   <x:si>
     <x:t>F</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Infra</x:t>
   </x:si>
   <x:si>
     <x:t>Ernest</x:t>
@@ -446,22 +449,28 @@
       <x:c r="E1" s="0">
         <x:v>55</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0">
         <x:v>4046</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -469,16 +478,19 @@
         <x:v>4350</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -486,16 +498,19 @@
         <x:v>4476</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -503,16 +518,19 @@
         <x:v>4620</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -520,16 +538,19 @@
         <x:v>5562</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -537,16 +558,19 @@
         <x:v>6414</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -554,16 +578,19 @@
         <x:v>6959</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -571,16 +598,19 @@
         <x:v>9401</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>55</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
